--- a/solutions/aws/ai/intelligent-document-processing/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/infrastructure-costs.xlsx
@@ -286,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -319,9 +319,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -335,9 +332,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -347,32 +341,47 @@
     <xf numFmtId="9" fontId="11" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -384,22 +393,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="17" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -408,10 +423,10 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="3" fontId="17" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -427,12 +442,6 @@
     </xf>
     <xf numFmtId="165" fontId="19" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,14 +796,14 @@
     </row>
     <row r="2" ht="15" customHeight="1"/>
     <row r="3" ht="40" customHeight="1">
-      <c r="B3" s="17" t="inlineStr">
+      <c r="B3" s="16" t="inlineStr">
         <is>
           <t>[DOCUMENT TITLE]</t>
         </is>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1">
-      <c r="B4" s="16" t="inlineStr">
+      <c r="B4" s="15" t="inlineStr">
         <is>
           <t>Infrastructure Costs</t>
         </is>
@@ -905,295 +914,295 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="35" t="inlineStr">
         <is>
           <t>Sizing Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="33" t="inlineStr">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>Component</t>
         </is>
       </c>
-      <c r="C2" s="33" t="inlineStr">
+      <c r="C2" s="36" t="inlineStr">
         <is>
           <t>Small</t>
         </is>
       </c>
-      <c r="D2" s="33" t="inlineStr">
+      <c r="D2" s="36" t="inlineStr">
         <is>
           <t>Medium</t>
         </is>
       </c>
-      <c r="E2" s="33" t="inlineStr">
+      <c r="E2" s="36" t="inlineStr">
         <is>
           <t>Large</t>
         </is>
       </c>
-      <c r="F2" s="33" t="inlineStr">
+      <c r="F2" s="36" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
     <row r="3" ht="26" customHeight="1">
-      <c r="A3" s="34" t="inlineStr">
+      <c r="A3" s="37" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="35" t="inlineStr">
+      <c r="B3" s="38" t="inlineStr">
         <is>
           <t>Document Processing Volume</t>
         </is>
       </c>
-      <c r="C3" s="35" t="inlineStr">
+      <c r="C3" s="39" t="inlineStr">
         <is>
           <t>50K pages/month</t>
         </is>
       </c>
-      <c r="D3" s="35" t="inlineStr">
+      <c r="D3" s="39" t="inlineStr">
         <is>
           <t>250K pages/month</t>
         </is>
       </c>
-      <c r="E3" s="35" t="inlineStr">
+      <c r="E3" s="39" t="inlineStr">
         <is>
           <t>1M+ pages/month</t>
         </is>
       </c>
-      <c r="F3" s="35" t="inlineStr">
+      <c r="F3" s="38" t="inlineStr">
         <is>
           <t>Monthly document processing capacity</t>
         </is>
       </c>
     </row>
     <row r="4" ht="26" customHeight="1">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="40" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B4" s="37" t="inlineStr">
+      <c r="B4" s="41" t="inlineStr">
         <is>
           <t>AI/ML Service Tier</t>
         </is>
       </c>
-      <c r="C4" s="37" t="inlineStr">
+      <c r="C4" s="42" t="inlineStr">
         <is>
           <t>Textract + Comprehend</t>
         </is>
       </c>
-      <c r="D4" s="37" t="inlineStr">
+      <c r="D4" s="42" t="inlineStr">
         <is>
           <t>+ Custom models</t>
         </is>
       </c>
-      <c r="E4" s="37" t="inlineStr">
+      <c r="E4" s="42" t="inlineStr">
         <is>
           <t>+ Advanced NLP + SageMaker</t>
         </is>
       </c>
-      <c r="F4" s="37" t="inlineStr">
+      <c r="F4" s="41" t="inlineStr">
         <is>
           <t>AI/ML service complexity</t>
         </is>
       </c>
     </row>
     <row r="5" ht="26" customHeight="1">
-      <c r="A5" s="34" t="inlineStr">
+      <c r="A5" s="37" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B5" s="35" t="inlineStr">
+      <c r="B5" s="38" t="inlineStr">
         <is>
           <t>Compute Allocation</t>
         </is>
       </c>
-      <c r="C5" s="35" t="inlineStr">
+      <c r="C5" s="39" t="inlineStr">
         <is>
           <t>500K GB-seconds</t>
         </is>
       </c>
-      <c r="D5" s="35" t="inlineStr">
+      <c r="D5" s="39" t="inlineStr">
         <is>
           <t>2M GB-seconds</t>
         </is>
       </c>
-      <c r="E5" s="35" t="inlineStr">
+      <c r="E5" s="39" t="inlineStr">
         <is>
           <t>10M+ GB-seconds</t>
         </is>
       </c>
-      <c r="F5" s="35" t="inlineStr">
+      <c r="F5" s="38" t="inlineStr">
         <is>
           <t>Lambda processing capacity</t>
         </is>
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="36" t="inlineStr">
+      <c r="A6" s="40" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B6" s="37" t="inlineStr">
+      <c r="B6" s="41" t="inlineStr">
         <is>
           <t>Storage Volume</t>
         </is>
       </c>
-      <c r="C6" s="37" t="inlineStr">
+      <c r="C6" s="42" t="inlineStr">
         <is>
           <t>1 TB</t>
         </is>
       </c>
-      <c r="D6" s="37" t="inlineStr">
+      <c r="D6" s="42" t="inlineStr">
         <is>
           <t>5 TB</t>
         </is>
       </c>
-      <c r="E6" s="37" t="inlineStr">
+      <c r="E6" s="42" t="inlineStr">
         <is>
           <t>20+ TB</t>
         </is>
       </c>
-      <c r="F6" s="37" t="inlineStr">
+      <c r="F6" s="41" t="inlineStr">
         <is>
           <t>Document storage and archives</t>
         </is>
       </c>
     </row>
     <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="34" t="inlineStr">
+      <c r="A7" s="37" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B7" s="35" t="inlineStr">
+      <c r="B7" s="38" t="inlineStr">
         <is>
           <t>API Request Volume</t>
         </is>
       </c>
-      <c r="C7" s="35" t="inlineStr">
+      <c r="C7" s="39" t="inlineStr">
         <is>
           <t>5M requests/month</t>
         </is>
       </c>
-      <c r="D7" s="35" t="inlineStr">
+      <c r="D7" s="39" t="inlineStr">
         <is>
           <t>20M requests/month</t>
         </is>
       </c>
-      <c r="E7" s="35" t="inlineStr">
+      <c r="E7" s="39" t="inlineStr">
         <is>
           <t>100M+ requests/month</t>
         </is>
       </c>
-      <c r="F7" s="35" t="inlineStr">
+      <c r="F7" s="38" t="inlineStr">
         <is>
           <t>API Gateway capacity</t>
         </is>
       </c>
     </row>
     <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="36" t="inlineStr">
+      <c r="A8" s="40" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B8" s="37" t="inlineStr">
+      <c r="B8" s="41" t="inlineStr">
         <is>
           <t>A2I Human Review</t>
         </is>
       </c>
-      <c r="C8" s="37" t="inlineStr">
+      <c r="C8" s="42" t="inlineStr">
         <is>
           <t>1K tasks/month</t>
         </is>
       </c>
-      <c r="D8" s="37" t="inlineStr">
+      <c r="D8" s="42" t="inlineStr">
         <is>
           <t>5K tasks/month</t>
         </is>
       </c>
-      <c r="E8" s="37" t="inlineStr">
+      <c r="E8" s="42" t="inlineStr">
         <is>
           <t>25K+ tasks/month</t>
         </is>
       </c>
-      <c r="F8" s="37" t="inlineStr">
+      <c r="F8" s="41" t="inlineStr">
         <is>
           <t>Human-in-the-loop review capacity</t>
         </is>
       </c>
     </row>
     <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="34" t="inlineStr">
+      <c r="A9" s="37" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B9" s="35" t="inlineStr">
+      <c r="B9" s="38" t="inlineStr">
         <is>
           <t>Monitoring Tools</t>
         </is>
       </c>
-      <c r="C9" s="35" t="inlineStr">
+      <c r="C9" s="39" t="inlineStr">
         <is>
           <t>Basic (3 hosts)</t>
         </is>
       </c>
-      <c r="D9" s="35" t="inlineStr">
+      <c r="D9" s="39" t="inlineStr">
         <is>
           <t>Standard (10 hosts)</t>
         </is>
       </c>
-      <c r="E9" s="35" t="inlineStr">
+      <c r="E9" s="39" t="inlineStr">
         <is>
           <t>Enterprise (50+ hosts)</t>
         </is>
       </c>
-      <c r="F9" s="35" t="inlineStr">
+      <c r="F9" s="38" t="inlineStr">
         <is>
           <t>Application performance monitoring</t>
         </is>
       </c>
     </row>
     <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="36" t="inlineStr">
+      <c r="A10" s="40" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B10" s="37" t="inlineStr">
+      <c r="B10" s="41" t="inlineStr">
         <is>
           <t>Support Level</t>
         </is>
       </c>
-      <c r="C10" s="37" t="inlineStr">
+      <c r="C10" s="42" t="inlineStr">
         <is>
           <t>Business hours</t>
         </is>
       </c>
-      <c r="D10" s="37" t="inlineStr">
+      <c r="D10" s="42" t="inlineStr">
         <is>
           <t>24x5 support</t>
         </is>
       </c>
-      <c r="E10" s="37" t="inlineStr">
+      <c r="E10" s="42" t="inlineStr">
         <is>
           <t>24x7 premium</t>
         </is>
       </c>
-      <c r="F10" s="37" t="inlineStr">
+      <c r="F10" s="41" t="inlineStr">
         <is>
           <t>SLA requirements</t>
         </is>
@@ -1237,1028 +1246,1028 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="35" t="inlineStr">
         <is>
           <t>Infrastructure Costs</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="33" t="inlineStr">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>Component</t>
         </is>
       </c>
-      <c r="C2" s="33" t="inlineStr">
+      <c r="C2" s="36" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="D2" s="33" t="inlineStr">
+      <c r="D2" s="36" t="inlineStr">
         <is>
           <t>Quantity</t>
         </is>
       </c>
-      <c r="E2" s="33" t="inlineStr">
+      <c r="E2" s="36" t="inlineStr">
         <is>
           <t>Unit</t>
         </is>
       </c>
-      <c r="F2" s="33" t="inlineStr">
+      <c r="F2" s="36" t="inlineStr">
         <is>
           <t>Unit Price</t>
         </is>
       </c>
-      <c r="G2" s="33" t="inlineStr">
+      <c r="G2" s="36" t="inlineStr">
         <is>
           <t>Annual Cost</t>
         </is>
       </c>
-      <c r="H2" s="33" t="inlineStr">
+      <c r="H2" s="36" t="inlineStr">
         <is>
           <t>Year 2</t>
         </is>
       </c>
-      <c r="I2" s="33" t="inlineStr">
+      <c r="I2" s="36" t="inlineStr">
         <is>
           <t>Year 3</t>
         </is>
       </c>
-      <c r="J2" s="33" t="inlineStr">
+      <c r="J2" s="36" t="inlineStr">
         <is>
           <t>3-Year Total</t>
         </is>
       </c>
-      <c r="K2" s="33" t="inlineStr">
+      <c r="K2" s="36" t="inlineStr">
         <is>
           <t>Notes</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="38" t="inlineStr">
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="39" t="inlineStr">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>S3 Storage</t>
         </is>
       </c>
-      <c r="C3" s="39" t="inlineStr">
+      <c r="C3" s="44" t="inlineStr">
         <is>
           <t>Standard Storage for document ingestion and archives</t>
         </is>
       </c>
-      <c r="D3" s="40" t="n">
+      <c r="D3" s="45" t="n">
         <v>1000</v>
       </c>
-      <c r="E3" s="39" t="inlineStr">
+      <c r="E3" s="44" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F3" s="41" t="n">
+      <c r="F3" s="46" t="n">
         <v>0.023</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="46">
         <f>D3*F3*12</f>
         <v/>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="46">
         <f>G3</f>
         <v/>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="46">
         <f>G3</f>
         <v/>
       </c>
-      <c r="J3" s="41">
+      <c r="J3" s="46">
         <f>G3+H3+I3</f>
         <v/>
       </c>
-      <c r="K3" s="39" t="inlineStr">
+      <c r="K3" s="44" t="inlineStr">
         <is>
           <t>Document storage</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B4" s="43" t="inlineStr">
+      <c r="B4" s="48" t="inlineStr">
         <is>
           <t>Textract Document Analysis</t>
         </is>
       </c>
-      <c r="C4" s="43" t="inlineStr">
+      <c r="C4" s="48" t="inlineStr">
         <is>
           <t>Document Analysis API (50k pages/month)</t>
         </is>
       </c>
-      <c r="D4" s="44" t="n">
+      <c r="D4" s="49" t="n">
         <v>50000</v>
       </c>
-      <c r="E4" s="43" t="inlineStr">
+      <c r="E4" s="48" t="inlineStr">
         <is>
           <t>Pages/Month</t>
         </is>
       </c>
-      <c r="F4" s="45" t="n">
+      <c r="F4" s="50" t="n">
         <v>0.015</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="50">
         <f>D4*F4*12</f>
         <v/>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="50">
         <f>G4</f>
         <v/>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="50">
         <f>G4</f>
         <v/>
       </c>
-      <c r="J4" s="45">
+      <c r="J4" s="50">
         <f>G4+H4+I4</f>
         <v/>
       </c>
-      <c r="K4" s="43" t="inlineStr">
+      <c r="K4" s="48" t="inlineStr">
         <is>
           <t>OCR and document analysis</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="38" t="inlineStr">
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B5" s="39" t="inlineStr">
+      <c r="B5" s="44" t="inlineStr">
         <is>
           <t>Textract Forms/Tables</t>
         </is>
       </c>
-      <c r="C5" s="39" t="inlineStr">
+      <c r="C5" s="44" t="inlineStr">
         <is>
           <t>Forms and Tables extraction (25k pages/month)</t>
         </is>
       </c>
-      <c r="D5" s="40" t="n">
+      <c r="D5" s="45" t="n">
         <v>25000</v>
       </c>
-      <c r="E5" s="39" t="inlineStr">
+      <c r="E5" s="44" t="inlineStr">
         <is>
           <t>Pages/Month</t>
         </is>
       </c>
-      <c r="F5" s="41" t="n">
+      <c r="F5" s="46" t="n">
         <v>0.05</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="46">
         <f>D5*F5*12</f>
         <v/>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="46">
         <f>G5</f>
         <v/>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="46">
         <f>G5</f>
         <v/>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="46">
         <f>G5+H5+I5</f>
         <v/>
       </c>
-      <c r="K5" s="39" t="inlineStr">
+      <c r="K5" s="44" t="inlineStr">
         <is>
           <t>Structured data extraction</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="42" t="inlineStr">
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B6" s="43" t="inlineStr">
+      <c r="B6" s="48" t="inlineStr">
         <is>
           <t>Comprehend Entity Recognition</t>
         </is>
       </c>
-      <c r="C6" s="43" t="inlineStr">
+      <c r="C6" s="48" t="inlineStr">
         <is>
           <t>Entity Recognition (25k units/month)</t>
         </is>
       </c>
-      <c r="D6" s="44" t="n">
+      <c r="D6" s="49" t="n">
         <v>25000</v>
       </c>
-      <c r="E6" s="43" t="inlineStr">
+      <c r="E6" s="48" t="inlineStr">
         <is>
           <t>Units/Month</t>
         </is>
       </c>
-      <c r="F6" s="45" t="n">
+      <c r="F6" s="50" t="n">
         <v>0.0001</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="50">
         <f>D6*F6*12</f>
         <v/>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="50">
         <f>G6</f>
         <v/>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="50">
         <f>G6</f>
         <v/>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="50">
         <f>G6+H6+I6</f>
         <v/>
       </c>
-      <c r="K6" s="43" t="inlineStr">
+      <c r="K6" s="48" t="inlineStr">
         <is>
           <t>NLP entity extraction</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="38" t="inlineStr">
+    <row r="7" ht="26" customHeight="1">
+      <c r="A7" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B7" s="39" t="inlineStr">
+      <c r="B7" s="44" t="inlineStr">
         <is>
           <t>Lambda Processing</t>
         </is>
       </c>
-      <c r="C7" s="39" t="inlineStr">
+      <c r="C7" s="44" t="inlineStr">
         <is>
           <t>Processing functions (500k GB-seconds/month)</t>
         </is>
       </c>
-      <c r="D7" s="40" t="n">
+      <c r="D7" s="45" t="n">
         <v>500000</v>
       </c>
-      <c r="E7" s="39" t="inlineStr">
+      <c r="E7" s="44" t="inlineStr">
         <is>
           <t>GB-Seconds/Month</t>
         </is>
       </c>
-      <c r="F7" s="41" t="n">
+      <c r="F7" s="46" t="n">
         <v>1.66667e-05</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="46">
         <f>D7*F7*12</f>
         <v/>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="46">
         <f>G7</f>
         <v/>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="46">
         <f>G7</f>
         <v/>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="46">
         <f>G7+H7+I7</f>
         <v/>
       </c>
-      <c r="K7" s="39" t="inlineStr">
+      <c r="K7" s="44" t="inlineStr">
         <is>
           <t>Serverless compute</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" s="42" t="inlineStr">
+    <row r="8" ht="26" customHeight="1">
+      <c r="A8" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B8" s="43" t="inlineStr">
+      <c r="B8" s="48" t="inlineStr">
         <is>
           <t>DynamoDB Storage</t>
         </is>
       </c>
-      <c r="C8" s="43" t="inlineStr">
+      <c r="C8" s="48" t="inlineStr">
         <is>
           <t>On-Demand storage and throughput</t>
         </is>
       </c>
-      <c r="D8" s="44" t="n">
+      <c r="D8" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E8" s="43" t="inlineStr">
+      <c r="E8" s="48" t="inlineStr">
         <is>
           <t>Service/Month</t>
         </is>
       </c>
-      <c r="F8" s="45" t="n">
+      <c r="F8" s="50" t="n">
         <v>300</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="50">
         <f>D8*F8*12</f>
         <v/>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="50">
         <f>G8</f>
         <v/>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="50">
         <f>G8</f>
         <v/>
       </c>
-      <c r="J8" s="45">
+      <c r="J8" s="50">
         <f>G8+H8+I8</f>
         <v/>
       </c>
-      <c r="K8" s="43" t="inlineStr">
+      <c r="K8" s="48" t="inlineStr">
         <is>
           <t>NoSQL database</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="38" t="inlineStr">
+    <row r="9" ht="26" customHeight="1">
+      <c r="A9" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B9" s="39" t="inlineStr">
+      <c r="B9" s="44" t="inlineStr">
         <is>
           <t>API Gateway</t>
         </is>
       </c>
-      <c r="C9" s="39" t="inlineStr">
+      <c r="C9" s="44" t="inlineStr">
         <is>
           <t>REST API (5M requests/month)</t>
         </is>
       </c>
-      <c r="D9" s="40" t="n">
+      <c r="D9" s="45" t="n">
         <v>5000000</v>
       </c>
-      <c r="E9" s="39" t="inlineStr">
+      <c r="E9" s="44" t="inlineStr">
         <is>
           <t>Requests/Month</t>
         </is>
       </c>
-      <c r="F9" s="41" t="n">
+      <c r="F9" s="46" t="n">
         <v>3.5e-06</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="46">
         <f>D9*F9*12</f>
         <v/>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="46">
         <f>G9</f>
         <v/>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="46">
         <f>G9</f>
         <v/>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="46">
         <f>G9+H9+I9</f>
         <v/>
       </c>
-      <c r="K9" s="39" t="inlineStr">
+      <c r="K9" s="44" t="inlineStr">
         <is>
           <t>API management</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="42" t="inlineStr">
+    <row r="10" ht="26" customHeight="1">
+      <c r="A10" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B10" s="43" t="inlineStr">
+      <c r="B10" s="48" t="inlineStr">
         <is>
           <t>SQS Queue</t>
         </is>
       </c>
-      <c r="C10" s="43" t="inlineStr">
+      <c r="C10" s="48" t="inlineStr">
         <is>
           <t>Standard Queue (10M requests/month)</t>
         </is>
       </c>
-      <c r="D10" s="44" t="n">
+      <c r="D10" s="49" t="n">
         <v>10000000</v>
       </c>
-      <c r="E10" s="43" t="inlineStr">
+      <c r="E10" s="48" t="inlineStr">
         <is>
           <t>Requests/Month</t>
         </is>
       </c>
-      <c r="F10" s="45" t="n">
+      <c r="F10" s="50" t="n">
         <v>4e-07</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="50">
         <f>D10*F10*12</f>
         <v/>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="50">
         <f>G10</f>
         <v/>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="50">
         <f>G10</f>
         <v/>
       </c>
-      <c r="J10" s="45">
+      <c r="J10" s="50">
         <f>G10+H10+I10</f>
         <v/>
       </c>
-      <c r="K10" s="43" t="inlineStr">
+      <c r="K10" s="48" t="inlineStr">
         <is>
           <t>Message queuing</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1">
-      <c r="A11" s="38" t="inlineStr">
+    <row r="11" ht="26" customHeight="1">
+      <c r="A11" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B11" s="39" t="inlineStr">
+      <c r="B11" s="44" t="inlineStr">
         <is>
           <t>SNS Notifications</t>
         </is>
       </c>
-      <c r="C11" s="39" t="inlineStr">
+      <c r="C11" s="44" t="inlineStr">
         <is>
           <t>Standard notifications (2M requests/month)</t>
         </is>
       </c>
-      <c r="D11" s="40" t="n">
+      <c r="D11" s="45" t="n">
         <v>2000000</v>
       </c>
-      <c r="E11" s="39" t="inlineStr">
+      <c r="E11" s="44" t="inlineStr">
         <is>
           <t>Requests/Month</t>
         </is>
       </c>
-      <c r="F11" s="41" t="n">
+      <c r="F11" s="46" t="n">
         <v>5e-07</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="46">
         <f>D11*F11*12</f>
         <v/>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="46">
         <f>G11</f>
         <v/>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="46">
         <f>G11</f>
         <v/>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="46">
         <f>G11+H11+I11</f>
         <v/>
       </c>
-      <c r="K11" s="39" t="inlineStr">
+      <c r="K11" s="44" t="inlineStr">
         <is>
           <t>Pub/sub messaging</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="42" t="inlineStr">
+    <row r="12" ht="26" customHeight="1">
+      <c r="A12" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B12" s="43" t="inlineStr">
+      <c r="B12" s="48" t="inlineStr">
         <is>
           <t>CloudWatch Logs</t>
         </is>
       </c>
-      <c r="C12" s="43" t="inlineStr">
+      <c r="C12" s="48" t="inlineStr">
         <is>
           <t>Logs and Metrics (50GB logs + 100 metrics)</t>
         </is>
       </c>
-      <c r="D12" s="44" t="n">
+      <c r="D12" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E12" s="43" t="inlineStr">
+      <c r="E12" s="48" t="inlineStr">
         <is>
           <t>Service/Month</t>
         </is>
       </c>
-      <c r="F12" s="45" t="n">
+      <c r="F12" s="50" t="n">
         <v>660</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="50">
         <f>D12*F12*12</f>
         <v/>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="50">
         <f>G12</f>
         <v/>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="50">
         <f>G12</f>
         <v/>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="50">
         <f>G12+H12+I12</f>
         <v/>
       </c>
-      <c r="K12" s="43" t="inlineStr">
+      <c r="K12" s="48" t="inlineStr">
         <is>
           <t>Monitoring and logging</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" s="38" t="inlineStr">
+    <row r="13" ht="26" customHeight="1">
+      <c r="A13" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B13" s="39" t="inlineStr">
+      <c r="B13" s="44" t="inlineStr">
         <is>
           <t>Step Functions</t>
         </is>
       </c>
-      <c r="C13" s="39" t="inlineStr">
+      <c r="C13" s="44" t="inlineStr">
         <is>
           <t>Standard workflows (100k transitions/month)</t>
         </is>
       </c>
-      <c r="D13" s="40" t="n">
+      <c r="D13" s="45" t="n">
         <v>100000</v>
       </c>
-      <c r="E13" s="39" t="inlineStr">
+      <c r="E13" s="44" t="inlineStr">
         <is>
           <t>Transitions/Month</t>
         </is>
       </c>
-      <c r="F13" s="41" t="n">
+      <c r="F13" s="46" t="n">
         <v>2.5e-05</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="46">
         <f>D13*F13*12</f>
         <v/>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="46">
         <f>G13</f>
         <v/>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="46">
         <f>G13</f>
         <v/>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="46">
         <f>G13+H13+I13</f>
         <v/>
       </c>
-      <c r="K13" s="39" t="inlineStr">
+      <c r="K13" s="44" t="inlineStr">
         <is>
           <t>Workflow orchestration</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" s="42" t="inlineStr">
+    <row r="14" ht="26" customHeight="1">
+      <c r="A14" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B14" s="43" t="inlineStr">
+      <c r="B14" s="48" t="inlineStr">
         <is>
           <t>ElastiCache Redis</t>
         </is>
       </c>
-      <c r="C14" s="43" t="inlineStr">
+      <c r="C14" s="48" t="inlineStr">
         <is>
           <t>cache.t3.micro single node</t>
         </is>
       </c>
-      <c r="D14" s="44" t="n">
+      <c r="D14" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E14" s="43" t="inlineStr">
+      <c r="E14" s="48" t="inlineStr">
         <is>
           <t>Instance/Month</t>
         </is>
       </c>
-      <c r="F14" s="45" t="n">
+      <c r="F14" s="50" t="n">
         <v>182</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="50">
         <f>D14*F14*12</f>
         <v/>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="50">
         <f>G14</f>
         <v/>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="50">
         <f>G14</f>
         <v/>
       </c>
-      <c r="J14" s="45">
+      <c r="J14" s="50">
         <f>G14+H14+I14</f>
         <v/>
       </c>
-      <c r="K14" s="43" t="inlineStr">
+      <c r="K14" s="48" t="inlineStr">
         <is>
           <t>Caching layer</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="38" t="inlineStr">
+    <row r="15" ht="26" customHeight="1">
+      <c r="A15" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B15" s="39" t="inlineStr">
+      <c r="B15" s="44" t="inlineStr">
         <is>
           <t>Secrets Manager</t>
         </is>
       </c>
-      <c r="C15" s="39" t="inlineStr">
+      <c r="C15" s="44" t="inlineStr">
         <is>
           <t>10 secrets for API keys and credentials</t>
         </is>
       </c>
-      <c r="D15" s="40" t="n">
+      <c r="D15" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="E15" s="39" t="inlineStr">
+      <c r="E15" s="44" t="inlineStr">
         <is>
           <t>Secrets/Month</t>
         </is>
       </c>
-      <c r="F15" s="41" t="n">
+      <c r="F15" s="46" t="n">
         <v>0.4</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="46">
         <f>D15*F15*12</f>
         <v/>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="46">
         <f>G15</f>
         <v/>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="46">
         <f>G15</f>
         <v/>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="46">
         <f>G15+H15+I15</f>
         <v/>
       </c>
-      <c r="K15" s="39" t="inlineStr">
+      <c r="K15" s="44" t="inlineStr">
         <is>
           <t>Secrets management</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="42" t="inlineStr">
+    <row r="16" ht="26" customHeight="1">
+      <c r="A16" s="47" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B16" s="43" t="inlineStr">
+      <c r="B16" s="48" t="inlineStr">
         <is>
           <t>VPC NAT Gateway</t>
         </is>
       </c>
-      <c r="C16" s="43" t="inlineStr">
+      <c r="C16" s="48" t="inlineStr">
         <is>
           <t>Single AZ NAT Gateway</t>
         </is>
       </c>
-      <c r="D16" s="44" t="n">
+      <c r="D16" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="43" t="inlineStr">
+      <c r="E16" s="48" t="inlineStr">
         <is>
           <t>Gateway/Month</t>
         </is>
       </c>
-      <c r="F16" s="45" t="n">
+      <c r="F16" s="50" t="n">
         <v>394</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="50">
         <f>D16*F16*12</f>
         <v/>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="50">
         <f>G16</f>
         <v/>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="50">
         <f>G16</f>
         <v/>
       </c>
-      <c r="J16" s="45">
+      <c r="J16" s="50">
         <f>G16+H16+I16</f>
         <v/>
       </c>
-      <c r="K16" s="43" t="inlineStr">
+      <c r="K16" s="48" t="inlineStr">
         <is>
           <t>Network address translation</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="20" customHeight="1">
-      <c r="A17" s="38" t="inlineStr">
+    <row r="17" ht="26" customHeight="1">
+      <c r="A17" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B17" s="39" t="inlineStr">
+      <c r="B17" s="44" t="inlineStr">
         <is>
           <t>Data Transfer Out</t>
         </is>
       </c>
-      <c r="C17" s="39" t="inlineStr">
+      <c r="C17" s="44" t="inlineStr">
         <is>
           <t>Outbound data transfer (500GB/month)</t>
         </is>
       </c>
-      <c r="D17" s="40" t="n">
+      <c r="D17" s="45" t="n">
         <v>500</v>
       </c>
-      <c r="E17" s="39" t="inlineStr">
+      <c r="E17" s="44" t="inlineStr">
         <is>
           <t>GB/Month</t>
         </is>
       </c>
-      <c r="F17" s="41" t="n">
+      <c r="F17" s="46" t="n">
         <v>0.09</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="46">
         <f>D17*F17*12</f>
         <v/>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="46">
         <f>G17</f>
         <v/>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="46">
         <f>G17</f>
         <v/>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="46">
         <f>G17+H17+I17</f>
         <v/>
       </c>
-      <c r="K17" s="39" t="inlineStr">
+      <c r="K17" s="44" t="inlineStr">
         <is>
           <t>Egress charges</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" s="42" t="inlineStr">
+    <row r="18" ht="26" customHeight="1">
+      <c r="A18" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B18" s="43" t="inlineStr">
+      <c r="B18" s="48" t="inlineStr">
         <is>
           <t>Amazon A2I</t>
         </is>
       </c>
-      <c r="C18" s="43" t="inlineStr">
+      <c r="C18" s="48" t="inlineStr">
         <is>
           <t>Augmented AI for human review (1k tasks/month)</t>
         </is>
       </c>
-      <c r="D18" s="44" t="n">
+      <c r="D18" s="49" t="n">
         <v>1000</v>
       </c>
-      <c r="E18" s="43" t="inlineStr">
+      <c r="E18" s="48" t="inlineStr">
         <is>
           <t>Tasks/Month</t>
         </is>
       </c>
-      <c r="F18" s="45" t="n">
+      <c r="F18" s="50" t="n">
         <v>0.04</v>
       </c>
-      <c r="G18" s="45">
+      <c r="G18" s="50">
         <f>D18*F18*12</f>
         <v/>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="50">
         <f>G18</f>
         <v/>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="50">
         <f>G18</f>
         <v/>
       </c>
-      <c r="J18" s="45">
+      <c r="J18" s="50">
         <f>G18+H18+I18</f>
         <v/>
       </c>
-      <c r="K18" s="43" t="inlineStr">
+      <c r="K18" s="48" t="inlineStr">
         <is>
           <t>Human-in-the-loop review</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" s="38" t="inlineStr">
+    <row r="19" ht="26" customHeight="1">
+      <c r="A19" s="43" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B19" s="39" t="inlineStr">
+      <c r="B19" s="44" t="inlineStr">
         <is>
           <t>Datadog Monitoring</t>
         </is>
       </c>
-      <c r="C19" s="39" t="inlineStr">
+      <c r="C19" s="44" t="inlineStr">
         <is>
           <t>Pro monitoring (3 hosts)</t>
         </is>
       </c>
-      <c r="D19" s="40" t="n">
+      <c r="D19" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E19" s="39" t="inlineStr">
+      <c r="E19" s="44" t="inlineStr">
         <is>
           <t>Hosts/Month</t>
         </is>
       </c>
-      <c r="F19" s="41" t="n">
+      <c r="F19" s="46" t="n">
         <v>23</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="46">
         <f>D19*F19*12</f>
         <v/>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="46">
         <f>G19</f>
         <v/>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="46">
         <f>G19</f>
         <v/>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="46">
         <f>G19+H19+I19</f>
         <v/>
       </c>
-      <c r="K19" s="39" t="inlineStr">
+      <c r="K19" s="44" t="inlineStr">
         <is>
           <t>Application monitoring</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" s="42" t="inlineStr">
+    <row r="20" ht="26" customHeight="1">
+      <c r="A20" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B20" s="43" t="inlineStr">
+      <c r="B20" s="48" t="inlineStr">
         <is>
           <t>PagerDuty</t>
         </is>
       </c>
-      <c r="C20" s="43" t="inlineStr">
+      <c r="C20" s="48" t="inlineStr">
         <is>
           <t>Professional incident management (3 users)</t>
         </is>
       </c>
-      <c r="D20" s="44" t="n">
+      <c r="D20" s="49" t="n">
         <v>3</v>
       </c>
-      <c r="E20" s="43" t="inlineStr">
+      <c r="E20" s="48" t="inlineStr">
         <is>
           <t>Users/Month</t>
         </is>
       </c>
-      <c r="F20" s="45" t="n">
+      <c r="F20" s="50" t="n">
         <v>41</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="50">
         <f>D20*F20*12</f>
         <v/>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="50">
         <f>G20</f>
         <v/>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="50">
         <f>G20</f>
         <v/>
       </c>
-      <c r="J20" s="45">
+      <c r="J20" s="50">
         <f>G20+H20+I20</f>
         <v/>
       </c>
-      <c r="K20" s="43" t="inlineStr">
+      <c r="K20" s="48" t="inlineStr">
         <is>
           <t>Incident management</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" s="38" t="inlineStr">
+    <row r="21" ht="26" customHeight="1">
+      <c r="A21" s="43" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B21" s="39" t="inlineStr">
+      <c r="B21" s="44" t="inlineStr">
         <is>
           <t>AWS Managed Services</t>
         </is>
       </c>
-      <c r="C21" s="39" t="inlineStr">
+      <c r="C21" s="44" t="inlineStr">
         <is>
           <t>Managed services and monitoring (15% of cloud infrastructure)</t>
         </is>
       </c>
-      <c r="D21" s="40" t="n">
+      <c r="D21" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="39" t="inlineStr">
+      <c r="E21" s="44" t="inlineStr">
         <is>
           <t>Service/Month</t>
         </is>
       </c>
-      <c r="F21" s="41" t="n">
+      <c r="F21" s="46" t="n">
         <v>4087</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="46">
         <f>D21*F21*12</f>
         <v/>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="46">
         <f>G21</f>
         <v/>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="46">
         <f>G21</f>
         <v/>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="46">
         <f>G21+H21+I21</f>
         <v/>
       </c>
-      <c r="K21" s="39" t="inlineStr">
+      <c r="K21" s="44" t="inlineStr">
         <is>
           <t>Ongoing support</t>
         </is>
       </c>
     </row>
     <row r="22" ht="26" customHeight="1">
-      <c r="A22" s="46" t="inlineStr">
+      <c r="A22" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B22" s="47" t="n"/>
-      <c r="C22" s="47" t="n"/>
-      <c r="D22" s="47" t="n"/>
-      <c r="E22" s="47" t="n"/>
-      <c r="F22" s="47" t="n"/>
-      <c r="G22" s="48">
+      <c r="B22" s="52" t="n"/>
+      <c r="C22" s="52" t="n"/>
+      <c r="D22" s="52" t="n"/>
+      <c r="E22" s="52" t="n"/>
+      <c r="F22" s="52" t="n"/>
+      <c r="G22" s="53">
         <f>SUM(G3:G21)</f>
         <v/>
       </c>
-      <c r="H22" s="48">
+      <c r="H22" s="53">
         <f>SUM(H3:H21)</f>
         <v/>
       </c>
-      <c r="I22" s="48">
+      <c r="I22" s="53">
         <f>SUM(I3:I21)</f>
         <v/>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="53">
         <f>SUM(J3:J21)</f>
         <v/>
       </c>
-      <c r="K22" s="47" t="n"/>
+      <c r="K22" s="52" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:K22"/>
@@ -2291,109 +2300,109 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="35" t="inlineStr">
         <is>
           <t>Credits</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="33" t="inlineStr">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>Credit Type</t>
         </is>
       </c>
-      <c r="C2" s="33" t="inlineStr">
+      <c r="C2" s="36" t="inlineStr">
         <is>
           <t>Credit Amount</t>
         </is>
       </c>
-      <c r="D2" s="33" t="inlineStr">
+      <c r="D2" s="36" t="inlineStr">
         <is>
           <t>Credit Comments</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="38" t="inlineStr">
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="49" t="inlineStr">
+      <c r="B3" s="44" t="inlineStr">
         <is>
           <t>AWS AI Services Credit</t>
         </is>
       </c>
-      <c r="C3" s="41" t="n">
+      <c r="C3" s="46" t="n">
         <v>-5000</v>
       </c>
-      <c r="D3" s="49" t="inlineStr">
+      <c r="D3" s="44" t="inlineStr">
         <is>
           <t>35% Year 1 Textract consumption credit</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B4" s="50" t="inlineStr">
+      <c r="B4" s="48" t="inlineStr">
         <is>
           <t>Partner Credit</t>
         </is>
       </c>
-      <c r="C4" s="45" t="n">
+      <c r="C4" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="50" t="inlineStr">
+      <c r="D4" s="48" t="inlineStr">
         <is>
           <t>No software credits available</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="38" t="inlineStr">
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B5" s="49" t="inlineStr">
+      <c r="B5" s="44" t="inlineStr">
         <is>
           <t>Program Credit</t>
         </is>
       </c>
-      <c r="C5" s="41" t="n">
+      <c r="C5" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="49" t="inlineStr">
+      <c r="D5" s="44" t="inlineStr">
         <is>
           <t>No support credits available</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="42" t="inlineStr">
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Hardware/Equipment</t>
         </is>
       </c>
-      <c r="B6" s="50" t="inlineStr">
+      <c r="B6" s="48" t="inlineStr">
         <is>
           <t>Equipment Credit</t>
         </is>
       </c>
-      <c r="C6" s="45" t="n">
+      <c r="C6" s="50" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="50" t="inlineStr">
+      <c r="D6" s="48" t="inlineStr">
         <is>
           <t>No hardware credits available</t>
         </is>
@@ -2433,200 +2442,200 @@
   </cols>
   <sheetData>
     <row r="1" ht="32" customHeight="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="35" t="inlineStr">
         <is>
           <t>3-Year Summary</t>
         </is>
       </c>
     </row>
     <row r="2" ht="32" customHeight="1">
-      <c r="A2" s="33" t="inlineStr">
+      <c r="A2" s="36" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="B2" s="33" t="inlineStr">
+      <c r="B2" s="36" t="inlineStr">
         <is>
           <t>Year 1 List</t>
         </is>
       </c>
-      <c r="C2" s="33" t="inlineStr">
+      <c r="C2" s="36" t="inlineStr">
         <is>
           <t>Year 1 Credits</t>
         </is>
       </c>
-      <c r="D2" s="33" t="inlineStr">
+      <c r="D2" s="36" t="inlineStr">
         <is>
           <t>Year 1 Net</t>
         </is>
       </c>
-      <c r="E2" s="33" t="inlineStr">
+      <c r="E2" s="36" t="inlineStr">
         <is>
           <t>Year 2</t>
         </is>
       </c>
-      <c r="F2" s="33" t="inlineStr">
+      <c r="F2" s="36" t="inlineStr">
         <is>
           <t>Year 3</t>
         </is>
       </c>
-      <c r="G2" s="33" t="inlineStr">
+      <c r="G2" s="36" t="inlineStr">
         <is>
           <t>3-Year Total</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="38" t="inlineStr">
+    <row r="3" ht="26" customHeight="1">
+      <c r="A3" s="43" t="inlineStr">
         <is>
           <t>Cloud Infrastructure</t>
         </is>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A3,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="46">
         <f>SUMIF(Credits!$A:$A,A3,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="46">
         <f>B3+C3</f>
         <v/>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A3,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A3,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="46">
         <f>D3+E3+F3</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="42" t="inlineStr">
+    <row r="4" ht="26" customHeight="1">
+      <c r="A4" s="47" t="inlineStr">
         <is>
           <t>Software Licenses</t>
         </is>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A4,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C4" s="45">
+      <c r="C4" s="50">
         <f>SUMIF(Credits!$A:$A,A4,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="50">
         <f>B4+C4</f>
         <v/>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A4,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A4,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="50">
         <f>D4+E4+F4</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" s="38" t="inlineStr">
+    <row r="5" ht="26" customHeight="1">
+      <c r="A5" s="43" t="inlineStr">
         <is>
           <t>Support &amp; Maintenance</t>
         </is>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A5,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="46">
         <f>SUMIF(Credits!$A:$A,A5,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="46">
         <f>B5+C5</f>
         <v/>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A5,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="46">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A5,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="46">
         <f>D5+E5+F5</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" s="42" t="inlineStr">
+    <row r="6" ht="26" customHeight="1">
+      <c r="A6" s="47" t="inlineStr">
         <is>
           <t>Professional Services</t>
         </is>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
         <v/>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="50">
         <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
         <v/>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="50">
         <f>B6+C6</f>
         <v/>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
         <v/>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="50">
         <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
         <v/>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="50">
         <f>D6+E6+F6</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" s="46" t="inlineStr">
+    <row r="7" ht="26" customHeight="1">
+      <c r="A7" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="53">
         <f>SUM(B3:B6)</f>
         <v/>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="53">
         <f>SUM(C3:C6)</f>
         <v/>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="53">
         <f>SUM(D3:D6)</f>
         <v/>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="53">
         <f>SUM(E3:E6)</f>
         <v/>
       </c>
-      <c r="F7" s="48">
+      <c r="F7" s="53">
         <f>SUM(F3:F6)</f>
         <v/>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="53">
         <f>SUM(G3:G6)</f>
         <v/>
       </c>

--- a/solutions/aws/ai/intelligent-document-processing/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/infrastructure-costs.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 19, 2025</t>
+          <t>November 21, 2025</t>
         </is>
       </c>
     </row>

--- a/solutions/aws/ai/intelligent-document-processing/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/infrastructure-costs.xlsx
@@ -16,7 +16,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 21, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="38" t="inlineStr">
@@ -987,7 +987,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="41" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="38" t="inlineStr">
@@ -1051,7 +1051,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="40" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="41" t="inlineStr">
@@ -1083,7 +1083,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="37" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="38" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -1361,7 +1361,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B4" s="48" t="inlineStr">
@@ -1410,7 +1410,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="44" t="inlineStr">
@@ -1459,7 +1459,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -1508,7 +1508,7 @@
     <row r="7" ht="26" customHeight="1">
       <c r="A7" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B7" s="44" t="inlineStr">
@@ -1557,7 +1557,7 @@
     <row r="8" ht="26" customHeight="1">
       <c r="A8" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B8" s="48" t="inlineStr">
@@ -1606,7 +1606,7 @@
     <row r="9" ht="26" customHeight="1">
       <c r="A9" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B9" s="44" t="inlineStr">
@@ -1655,7 +1655,7 @@
     <row r="10" ht="26" customHeight="1">
       <c r="A10" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B10" s="48" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="11" ht="26" customHeight="1">
       <c r="A11" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B11" s="44" t="inlineStr">
@@ -1753,7 +1753,7 @@
     <row r="12" ht="26" customHeight="1">
       <c r="A12" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B12" s="48" t="inlineStr">
@@ -1802,7 +1802,7 @@
     <row r="13" ht="26" customHeight="1">
       <c r="A13" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B13" s="44" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="14" ht="26" customHeight="1">
       <c r="A14" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B14" s="48" t="inlineStr">
@@ -1900,7 +1900,7 @@
     <row r="15" ht="26" customHeight="1">
       <c r="A15" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B15" s="44" t="inlineStr">
@@ -1949,7 +1949,7 @@
     <row r="16" ht="26" customHeight="1">
       <c r="A16" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B16" s="48" t="inlineStr">
@@ -1998,7 +1998,7 @@
     <row r="17" ht="26" customHeight="1">
       <c r="A17" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B17" s="44" t="inlineStr">
@@ -2331,7 +2331,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="44" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Hardware/Equipment</t>
+          <t>Hardware</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -2423,7 +2423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2488,7 +2488,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -2579,69 +2579,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/solutions/aws/ai/intelligent-document-processing/presales/infrastructure-costs.xlsx
+++ b/solutions/aws/ai/intelligent-document-processing/presales/infrastructure-costs.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 24, 2025</t>
+          <t>November 26, 2025</t>
         </is>
       </c>
     </row>
